--- a/outputs-HGR-r202/f__Fusobacteriaceae.xlsx
+++ b/outputs-HGR-r202/f__Fusobacteriaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,36 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88709.fa</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0001117809429739471</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.077139167835436e-07</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9998246238684301</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.326799262735041e-05</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.194820517062759e-07</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9998246238684301</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>g__Fusobacterium_A</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/outputs-HGR-r202/f__Fusobacteriaceae.xlsx
+++ b/outputs-HGR-r202/f__Fusobacteriaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,11 @@
           <t>g__Fusobacterium_A</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>g__Fusobacterium_A</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -531,6 +541,11 @@
         <v>0.9998246238684301</v>
       </c>
       <c r="H3" t="inlineStr">
+        <is>
+          <t>g__Fusobacterium_A</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>g__Fusobacterium_A</t>
         </is>
